--- a/src/analysis_examples/circadb/results_jtk/cosinor_10507851_pabpc4_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10507851_pabpc4_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2990230392449291, 0.44260749989009196]</t>
+          <t>[0.30161261299738473, 0.44001792613763635]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.458313800943415e-10</v>
+        <v>2.817599487059397e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>5.458313800943415e-10</v>
+        <v>2.817599487059397e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.2767368904063083</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.34404368976643684, 0.4267826545724781]</t>
+          <t>[0.3440257833421073, 0.42680056099680763]</t>
         </is>
       </c>
       <c r="U2" t="n">
